--- a/Vanilla_Shaman.xlsx
+++ b/Vanilla_Shaman.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\WoW\stormearthandfire\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9408" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Itemstatlist" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="568">
   <si>
     <t>Int</t>
   </si>
@@ -1729,6 +1729,12 @@
   </si>
   <si>
     <t>High Warlord's Battle Mace</t>
+  </si>
+  <si>
+    <t>Band of Piety</t>
+  </si>
+  <si>
+    <t>Argent Dawn</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1745,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="[&gt;=1000]#,##0,&quot;K&quot;;0"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2080,7 +2086,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2319,17 +2325,20 @@
     <xf numFmtId="1" fontId="0" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="222">
+  <dxfs count="221">
     <dxf>
       <fill>
         <patternFill>
@@ -3877,13 +3886,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4167,10 +4169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q275"/>
+  <dimension ref="A1:Q276"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R245" sqref="R245"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T208" sqref="T208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10813,7 +10815,7 @@
       </c>
       <c r="F202" s="19"/>
       <c r="G202" s="21">
-        <f t="shared" ref="G202:G224" si="15">(E202/5)+(F202)+(D202/7)</f>
+        <f t="shared" ref="G202:G225" si="15">(E202/5)+(F202)+(D202/7)</f>
         <v>8.9714285714285715</v>
       </c>
       <c r="H202" s="19">
@@ -11211,27 +11213,29 @@
     </row>
     <row r="214" spans="1:17" ht="15.6">
       <c r="A214" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B214" s="69" t="s">
-        <v>471</v>
+        <v>566</v>
+      </c>
+      <c r="B214" s="102" t="s">
+        <v>567</v>
       </c>
       <c r="C214" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D214" s="19">
-        <v>9</v>
-      </c>
-      <c r="E214" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="E214" s="19">
+        <v>10</v>
+      </c>
       <c r="F214" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G214" s="21">
         <f t="shared" si="15"/>
-        <v>4.2857142857142856</v>
+        <v>9.1428571428571423</v>
       </c>
       <c r="H214" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I214" s="19"/>
       <c r="J214" s="19"/>
@@ -11245,32 +11249,30 @@
     </row>
     <row r="215" spans="1:17" ht="15.6">
       <c r="A215" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B215" s="64" t="s">
-        <v>486</v>
+        <v>41</v>
+      </c>
+      <c r="B215" s="69" t="s">
+        <v>471</v>
       </c>
       <c r="C215" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19">
-        <v>6</v>
-      </c>
+      <c r="D215" s="19">
+        <v>9</v>
+      </c>
+      <c r="E215" s="19"/>
       <c r="F215" s="19">
         <v>3</v>
       </c>
       <c r="G215" s="21">
-        <f>(E215/5)+(F215)+(D215/7)</f>
-        <v>4.2</v>
+        <f t="shared" si="15"/>
+        <v>4.2857142857142856</v>
       </c>
       <c r="H215" s="19">
         <v>5</v>
       </c>
       <c r="I215" s="19"/>
-      <c r="J215" s="19">
-        <v>1</v>
-      </c>
+      <c r="J215" s="19"/>
       <c r="K215" s="19"/>
       <c r="L215" s="19"/>
       <c r="M215" s="19"/>
@@ -11281,30 +11283,32 @@
     </row>
     <row r="216" spans="1:17" ht="15.6">
       <c r="A216" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B216" s="65" t="s">
-        <v>449</v>
+        <v>304</v>
+      </c>
+      <c r="B216" s="64" t="s">
+        <v>486</v>
       </c>
       <c r="C216" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D216" s="19">
-        <v>11</v>
-      </c>
+      <c r="D216" s="19"/>
       <c r="E216" s="19">
-        <v>10</v>
-      </c>
-      <c r="F216" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="F216" s="19">
+        <v>3</v>
+      </c>
       <c r="G216" s="21">
         <f>(E216/5)+(F216)+(D216/7)</f>
-        <v>3.5714285714285712</v>
+        <v>4.2</v>
       </c>
       <c r="H216" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I216" s="19"/>
-      <c r="J216" s="19"/>
+      <c r="J216" s="19">
+        <v>1</v>
+      </c>
       <c r="K216" s="19"/>
       <c r="L216" s="19"/>
       <c r="M216" s="19"/>
@@ -11315,27 +11319,29 @@
     </row>
     <row r="217" spans="1:17" ht="15.6">
       <c r="A217" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B217" s="64" t="s">
-        <v>407</v>
+        <v>187</v>
+      </c>
+      <c r="B217" s="65" t="s">
+        <v>449</v>
       </c>
       <c r="C217" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D217" s="19"/>
+      <c r="D217" s="19">
+        <v>11</v>
+      </c>
       <c r="E217" s="19">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F217" s="19"/>
       <c r="G217" s="21">
         <f>(E217/5)+(F217)+(D217/7)</f>
-        <v>3.4</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19">
-        <v>7</v>
-      </c>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="H217" s="19">
+        <v>10</v>
+      </c>
+      <c r="I217" s="19"/>
       <c r="J217" s="19"/>
       <c r="K217" s="19"/>
       <c r="L217" s="19"/>
@@ -11347,26 +11353,24 @@
     </row>
     <row r="218" spans="1:17" ht="15.6">
       <c r="A218" s="4" t="s">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="B218" s="64" t="s">
-        <v>487</v>
+        <v>407</v>
       </c>
       <c r="C218" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D218" s="19"/>
       <c r="E218" s="19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F218" s="19"/>
       <c r="G218" s="21">
-        <f t="shared" si="15"/>
-        <v>2.4</v>
-      </c>
-      <c r="H218" s="19">
-        <v>8</v>
-      </c>
+        <f>(E218/5)+(F218)+(D218/7)</f>
+        <v>3.4</v>
+      </c>
+      <c r="H218" s="19"/>
       <c r="I218" s="19">
         <v>7</v>
       </c>
@@ -11381,27 +11385,29 @@
     </row>
     <row r="219" spans="1:17" ht="15.6">
       <c r="A219" s="4" t="s">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="B219" s="64" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="C219" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D219" s="19">
-        <v>16</v>
-      </c>
-      <c r="E219" s="19"/>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19">
+        <v>12</v>
+      </c>
       <c r="F219" s="19"/>
       <c r="G219" s="21">
-        <f>(E219/5)+(F219)+(D219/7)</f>
-        <v>2.2857142857142856</v>
+        <f t="shared" si="15"/>
+        <v>2.4</v>
       </c>
       <c r="H219" s="19">
+        <v>8</v>
+      </c>
+      <c r="I219" s="19">
         <v>7</v>
       </c>
-      <c r="I219" s="19"/>
       <c r="J219" s="19"/>
       <c r="K219" s="19"/>
       <c r="L219" s="19"/>
@@ -11413,30 +11419,28 @@
     </row>
     <row r="220" spans="1:17" ht="15.6">
       <c r="A220" s="4" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="B220" s="64" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="C220" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D220" s="19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E220" s="19"/>
       <c r="F220" s="19"/>
       <c r="G220" s="21">
         <f>(E220/5)+(F220)+(D220/7)</f>
-        <v>1.5714285714285714</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="H220" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I220" s="19"/>
-      <c r="J220" s="19">
-        <v>1</v>
-      </c>
+      <c r="J220" s="19"/>
       <c r="K220" s="19"/>
       <c r="L220" s="19"/>
       <c r="M220" s="19"/>
@@ -11447,46 +11451,44 @@
     </row>
     <row r="221" spans="1:17" ht="15.6">
       <c r="A221" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B221" s="70" t="s">
-        <v>488</v>
+        <v>311</v>
+      </c>
+      <c r="B221" s="64" t="s">
+        <v>387</v>
       </c>
       <c r="C221" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D221" s="19"/>
-      <c r="E221" s="19">
-        <v>7</v>
-      </c>
+      <c r="D221" s="19">
+        <v>11</v>
+      </c>
+      <c r="E221" s="19"/>
       <c r="F221" s="19"/>
       <c r="G221" s="21">
-        <f t="shared" si="15"/>
-        <v>1.4</v>
+        <f>(E221/5)+(F221)+(D221/7)</f>
+        <v>1.5714285714285714</v>
       </c>
       <c r="H221" s="19">
-        <v>4</v>
-      </c>
-      <c r="I221" s="19">
-        <v>4</v>
-      </c>
-      <c r="J221" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="I221" s="19"/>
+      <c r="J221" s="19">
+        <v>1</v>
+      </c>
       <c r="K221" s="19"/>
       <c r="L221" s="19"/>
       <c r="M221" s="19"/>
       <c r="N221" s="19"/>
-      <c r="O221" s="19">
-        <v>15</v>
-      </c>
+      <c r="O221" s="19"/>
       <c r="P221" s="28"/>
       <c r="Q221" s="28"/>
     </row>
     <row r="222" spans="1:17" ht="15.6">
       <c r="A222" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B222" s="64" t="s">
-        <v>395</v>
+        <v>133</v>
+      </c>
+      <c r="B222" s="70" t="s">
+        <v>488</v>
       </c>
       <c r="C222" s="39" t="s">
         <v>158</v>
@@ -11500,33 +11502,41 @@
         <f t="shared" si="15"/>
         <v>1.4</v>
       </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
+      <c r="H222" s="19">
+        <v>4</v>
+      </c>
+      <c r="I222" s="19">
+        <v>4</v>
+      </c>
       <c r="J222" s="19"/>
       <c r="K222" s="19"/>
       <c r="L222" s="19"/>
       <c r="M222" s="19"/>
       <c r="N222" s="19"/>
-      <c r="O222" s="19"/>
+      <c r="O222" s="19">
+        <v>15</v>
+      </c>
       <c r="P222" s="28"/>
       <c r="Q222" s="28"/>
     </row>
-    <row r="223" spans="1:17" ht="57.6">
+    <row r="223" spans="1:17" ht="15.6">
       <c r="A223" s="4" t="s">
-        <v>230</v>
+        <v>361</v>
       </c>
       <c r="B223" s="64" t="s">
-        <v>489</v>
+        <v>395</v>
       </c>
       <c r="C223" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D223" s="19"/>
-      <c r="E223" s="19"/>
+      <c r="E223" s="19">
+        <v>7</v>
+      </c>
       <c r="F223" s="19"/>
       <c r="G223" s="21">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -11536,19 +11546,15 @@
       <c r="M223" s="19"/>
       <c r="N223" s="19"/>
       <c r="O223" s="19"/>
-      <c r="P223" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q223" s="28" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" ht="15.6">
+      <c r="P223" s="28"/>
+      <c r="Q223" s="28"/>
+    </row>
+    <row r="224" spans="1:17" ht="57.6">
       <c r="A224" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B224" s="68" t="s">
-        <v>403</v>
+        <v>230</v>
+      </c>
+      <c r="B224" s="64" t="s">
+        <v>489</v>
       </c>
       <c r="C224" s="39" t="s">
         <v>158</v>
@@ -11568,78 +11574,80 @@
       <c r="M224" s="19"/>
       <c r="N224" s="19"/>
       <c r="O224" s="19"/>
-      <c r="P224" s="28"/>
-      <c r="Q224" s="28"/>
-    </row>
-    <row r="225" spans="1:17" ht="18">
-      <c r="A225" s="41" t="s">
+      <c r="P224" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q224" s="28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" ht="15.6">
+      <c r="A225" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B225" s="68" t="s">
+        <v>403</v>
+      </c>
+      <c r="C225" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D225" s="19"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="19"/>
+      <c r="G225" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H225" s="19"/>
+      <c r="I225" s="19"/>
+      <c r="J225" s="19"/>
+      <c r="K225" s="19"/>
+      <c r="L225" s="19"/>
+      <c r="M225" s="19"/>
+      <c r="N225" s="19"/>
+      <c r="O225" s="19"/>
+      <c r="P225" s="28"/>
+      <c r="Q225" s="28"/>
+    </row>
+    <row r="226" spans="1:17" ht="18">
+      <c r="A226" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B225" s="66"/>
-      <c r="C225" s="42"/>
-      <c r="D225" s="43"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="43"/>
-      <c r="G225" s="44"/>
-      <c r="H225" s="43"/>
-      <c r="I225" s="43"/>
-      <c r="J225" s="43"/>
-      <c r="K225" s="43"/>
-      <c r="L225" s="43"/>
-      <c r="M225" s="43"/>
-      <c r="N225" s="43"/>
-      <c r="O225" s="43"/>
-      <c r="P225" s="45"/>
-      <c r="Q225" s="45"/>
-    </row>
-    <row r="226" spans="1:17" ht="15.6">
-      <c r="A226" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B226" s="64" t="s">
-        <v>474</v>
-      </c>
-      <c r="C226" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D226" s="19"/>
-      <c r="E226" s="19"/>
-      <c r="F226" s="19">
-        <v>11</v>
-      </c>
-      <c r="G226" s="21">
-        <f t="shared" ref="G226:G233" si="16">(E226/5)+(F226)+(D226/7)</f>
-        <v>11</v>
-      </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="19"/>
-      <c r="K226" s="19"/>
-      <c r="L226" s="19"/>
-      <c r="M226" s="19"/>
-      <c r="N226" s="19"/>
-      <c r="O226" s="19"/>
-      <c r="P226" s="28"/>
-      <c r="Q226" s="28"/>
+      <c r="B226" s="66"/>
+      <c r="C226" s="42"/>
+      <c r="D226" s="43"/>
+      <c r="E226" s="43"/>
+      <c r="F226" s="43"/>
+      <c r="G226" s="44"/>
+      <c r="H226" s="43"/>
+      <c r="I226" s="43"/>
+      <c r="J226" s="43"/>
+      <c r="K226" s="43"/>
+      <c r="L226" s="43"/>
+      <c r="M226" s="43"/>
+      <c r="N226" s="43"/>
+      <c r="O226" s="43"/>
+      <c r="P226" s="45"/>
+      <c r="Q226" s="45"/>
     </row>
     <row r="227" spans="1:17" ht="15.6">
       <c r="A227" s="4" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B227" s="64" t="s">
-        <v>383</v>
+        <v>474</v>
       </c>
       <c r="C227" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D227" s="19">
-        <v>29</v>
-      </c>
+      <c r="D227" s="19"/>
       <c r="E227" s="19"/>
-      <c r="F227" s="19"/>
+      <c r="F227" s="19">
+        <v>11</v>
+      </c>
       <c r="G227" s="21">
-        <f t="shared" si="16"/>
-        <v>4.1428571428571432</v>
+        <f t="shared" ref="G227:G234" si="16">(E227/5)+(F227)+(D227/7)</f>
+        <v>11</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -11654,22 +11662,22 @@
     </row>
     <row r="228" spans="1:17" ht="15.6">
       <c r="A228" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B228" s="70" t="s">
-        <v>490</v>
+        <v>26</v>
+      </c>
+      <c r="B228" s="64" t="s">
+        <v>383</v>
       </c>
       <c r="C228" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D228" s="19">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E228" s="19"/>
       <c r="F228" s="19"/>
       <c r="G228" s="21">
         <f t="shared" si="16"/>
-        <v>3.2857142857142856</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -11678,30 +11686,28 @@
       <c r="L228" s="19"/>
       <c r="M228" s="19"/>
       <c r="N228" s="19"/>
-      <c r="O228" s="19">
-        <v>10</v>
-      </c>
-      <c r="P228" s="24"/>
+      <c r="O228" s="19"/>
+      <c r="P228" s="28"/>
       <c r="Q228" s="28"/>
     </row>
-    <row r="229" spans="1:17" ht="28.8">
+    <row r="229" spans="1:17" ht="15.6">
       <c r="A229" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B229" s="64" t="s">
-        <v>452</v>
+        <v>136</v>
+      </c>
+      <c r="B229" s="70" t="s">
+        <v>490</v>
       </c>
       <c r="C229" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D229" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E229" s="19"/>
       <c r="F229" s="19"/>
       <c r="G229" s="21">
         <f t="shared" si="16"/>
-        <v>3.1428571428571428</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -11710,32 +11716,30 @@
       <c r="L229" s="19"/>
       <c r="M229" s="19"/>
       <c r="N229" s="19"/>
-      <c r="O229" s="19"/>
-      <c r="P229" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q229" s="28" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17" ht="43.2">
+      <c r="O229" s="19">
+        <v>10</v>
+      </c>
+      <c r="P229" s="24"/>
+      <c r="Q229" s="28"/>
+    </row>
+    <row r="230" spans="1:17" ht="28.8">
       <c r="A230" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B230" s="64" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C230" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D230" s="19">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E230" s="19"/>
       <c r="F230" s="19"/>
       <c r="G230" s="21">
         <f t="shared" si="16"/>
-        <v>1.7142857142857142</v>
+        <v>3.1428571428571428</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -11746,28 +11750,30 @@
       <c r="N230" s="19"/>
       <c r="O230" s="19"/>
       <c r="P230" s="24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q230" s="28" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="31.8" customHeight="1">
+    <row r="231" spans="1:17" ht="43.2">
       <c r="A231" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B231" s="70" t="s">
-        <v>491</v>
+        <v>210</v>
+      </c>
+      <c r="B231" s="64" t="s">
+        <v>437</v>
       </c>
       <c r="C231" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D231" s="19"/>
+      <c r="D231" s="19">
+        <v>12</v>
+      </c>
       <c r="E231" s="19"/>
       <c r="F231" s="19"/>
       <c r="G231" s="21">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -11777,19 +11783,19 @@
       <c r="M231" s="19"/>
       <c r="N231" s="19"/>
       <c r="O231" s="19"/>
-      <c r="P231" s="22" t="s">
-        <v>96</v>
+      <c r="P231" s="24" t="s">
+        <v>364</v>
       </c>
       <c r="Q231" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17" ht="76.8" customHeight="1">
-      <c r="A232" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B232" s="65" t="s">
-        <v>506</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" ht="31.8" customHeight="1">
+      <c r="A232" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B232" s="70" t="s">
+        <v>491</v>
       </c>
       <c r="C232" s="39" t="s">
         <v>158</v>
@@ -11809,19 +11815,19 @@
       <c r="M232" s="19"/>
       <c r="N232" s="19"/>
       <c r="O232" s="19"/>
-      <c r="P232" s="72" t="s">
-        <v>507</v>
+      <c r="P232" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="Q232" s="28" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="233" spans="1:17" ht="28.8">
-      <c r="A233" s="4" t="s">
-        <v>27</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" ht="76.8" customHeight="1">
+      <c r="A233" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="B233" s="65" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="C233" s="39" t="s">
         <v>158</v>
@@ -11841,19 +11847,19 @@
       <c r="M233" s="19"/>
       <c r="N233" s="19"/>
       <c r="O233" s="19"/>
-      <c r="P233" s="24" t="s">
-        <v>358</v>
+      <c r="P233" s="72" t="s">
+        <v>507</v>
       </c>
       <c r="Q233" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17" ht="43.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" ht="28.8">
       <c r="A234" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B234" s="68" t="s">
-        <v>403</v>
+        <v>27</v>
+      </c>
+      <c r="B234" s="65" t="s">
+        <v>467</v>
       </c>
       <c r="C234" s="39" t="s">
         <v>158</v>
@@ -11862,7 +11868,7 @@
       <c r="E234" s="19"/>
       <c r="F234" s="19"/>
       <c r="G234" s="21">
-        <f t="shared" ref="G234:G238" si="17">(E234/5)+(F234)+(D234/7)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H234" s="19"/>
@@ -11872,22 +11878,20 @@
       <c r="L234" s="19"/>
       <c r="M234" s="19"/>
       <c r="N234" s="19"/>
-      <c r="O234" s="19">
-        <v>15</v>
-      </c>
-      <c r="P234" s="29" t="s">
-        <v>151</v>
+      <c r="O234" s="19"/>
+      <c r="P234" s="24" t="s">
+        <v>358</v>
       </c>
       <c r="Q234" s="28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17" ht="15.6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" ht="43.2">
       <c r="A235" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B235" s="67" t="s">
-        <v>492</v>
+        <v>137</v>
+      </c>
+      <c r="B235" s="68" t="s">
+        <v>403</v>
       </c>
       <c r="C235" s="39" t="s">
         <v>158</v>
@@ -11896,34 +11900,32 @@
       <c r="E235" s="19"/>
       <c r="F235" s="19"/>
       <c r="G235" s="21">
-        <f>(E235/5)+(F235)+(D235/7)</f>
+        <f t="shared" ref="G235:G239" si="17">(E235/5)+(F235)+(D235/7)</f>
         <v>0</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
       <c r="K235" s="19"/>
-      <c r="L235" s="19">
-        <v>7</v>
-      </c>
-      <c r="M235" s="19">
-        <v>7</v>
-      </c>
-      <c r="N235" s="19">
-        <v>7</v>
-      </c>
+      <c r="L235" s="19"/>
+      <c r="M235" s="19"/>
+      <c r="N235" s="19"/>
       <c r="O235" s="19">
-        <v>7</v>
-      </c>
-      <c r="P235" s="24"/>
-      <c r="Q235" s="28"/>
-    </row>
-    <row r="236" spans="1:17" ht="43.2">
+        <v>15</v>
+      </c>
+      <c r="P235" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q235" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" ht="15.6">
       <c r="A236" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B236" s="64" t="s">
-        <v>380</v>
+        <v>138</v>
+      </c>
+      <c r="B236" s="67" t="s">
+        <v>492</v>
       </c>
       <c r="C236" s="39" t="s">
         <v>158</v>
@@ -11932,30 +11934,34 @@
       <c r="E236" s="19"/>
       <c r="F236" s="19"/>
       <c r="G236" s="21">
-        <f t="shared" si="17"/>
+        <f>(E236/5)+(F236)+(D236/7)</f>
         <v>0</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
       <c r="K236" s="19"/>
-      <c r="L236" s="19"/>
-      <c r="M236" s="19"/>
-      <c r="N236" s="19"/>
-      <c r="O236" s="19"/>
-      <c r="P236" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q236" s="28" t="s">
-        <v>366</v>
-      </c>
+      <c r="L236" s="19">
+        <v>7</v>
+      </c>
+      <c r="M236" s="19">
+        <v>7</v>
+      </c>
+      <c r="N236" s="19">
+        <v>7</v>
+      </c>
+      <c r="O236" s="19">
+        <v>7</v>
+      </c>
+      <c r="P236" s="24"/>
+      <c r="Q236" s="28"/>
     </row>
     <row r="237" spans="1:17" ht="43.2">
-      <c r="A237" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B237" s="63" t="s">
-        <v>392</v>
+      <c r="A237" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B237" s="64" t="s">
+        <v>380</v>
       </c>
       <c r="C237" s="39" t="s">
         <v>158</v>
@@ -11976,18 +11982,18 @@
       <c r="N237" s="19"/>
       <c r="O237" s="19"/>
       <c r="P237" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q237" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="238" spans="1:17" ht="28.8">
-      <c r="A238" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B238" s="67" t="s">
-        <v>493</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" ht="43.2">
+      <c r="A238" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B238" s="63" t="s">
+        <v>392</v>
       </c>
       <c r="C238" s="39" t="s">
         <v>158</v>
@@ -12006,103 +12012,97 @@
       <c r="L238" s="19"/>
       <c r="M238" s="19"/>
       <c r="N238" s="19"/>
-      <c r="O238" s="19">
+      <c r="O238" s="19"/>
+      <c r="P238" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q238" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" ht="28.8">
+      <c r="A239" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B239" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="C239" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D239" s="19"/>
+      <c r="E239" s="19"/>
+      <c r="F239" s="19"/>
+      <c r="G239" s="21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H239" s="19"/>
+      <c r="I239" s="19"/>
+      <c r="J239" s="19"/>
+      <c r="K239" s="19"/>
+      <c r="L239" s="19"/>
+      <c r="M239" s="19"/>
+      <c r="N239" s="19"/>
+      <c r="O239" s="19">
         <v>18</v>
       </c>
-      <c r="P238" s="24" t="s">
+      <c r="P239" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="Q238" s="28" t="s">
+      <c r="Q239" s="28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="18">
-      <c r="A239" s="41" t="s">
+    <row r="240" spans="1:17" ht="18">
+      <c r="A240" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B239" s="66"/>
-      <c r="C239" s="42"/>
-      <c r="D239" s="43"/>
-      <c r="E239" s="43"/>
-      <c r="F239" s="43"/>
-      <c r="G239" s="44"/>
-      <c r="H239" s="43"/>
-      <c r="I239" s="43"/>
-      <c r="J239" s="43"/>
-      <c r="K239" s="43"/>
-      <c r="L239" s="43"/>
-      <c r="M239" s="43"/>
-      <c r="N239" s="43"/>
-      <c r="O239" s="43"/>
-      <c r="P239" s="45"/>
-      <c r="Q239" s="45"/>
-    </row>
-    <row r="240" spans="1:17" ht="15.6">
-      <c r="A240" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B240" s="69" t="s">
-        <v>471</v>
-      </c>
-      <c r="C240" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="D240" s="19">
-        <v>134</v>
-      </c>
-      <c r="E240" s="19">
-        <v>8</v>
-      </c>
-      <c r="F240" s="19">
-        <v>6</v>
-      </c>
-      <c r="G240" s="21">
-        <f>(E240/5)+(F240)+(D240/7)</f>
-        <v>26.74285714285714</v>
-      </c>
-      <c r="H240" s="19">
-        <v>14</v>
-      </c>
-      <c r="I240" s="19"/>
-      <c r="J240" s="19"/>
-      <c r="K240" s="19"/>
-      <c r="L240" s="19"/>
-      <c r="M240" s="19"/>
-      <c r="N240" s="19"/>
-      <c r="O240" s="19"/>
-      <c r="P240" s="28"/>
-      <c r="Q240" s="28"/>
+      <c r="B240" s="66"/>
+      <c r="C240" s="42"/>
+      <c r="D240" s="43"/>
+      <c r="E240" s="43"/>
+      <c r="F240" s="43"/>
+      <c r="G240" s="44"/>
+      <c r="H240" s="43"/>
+      <c r="I240" s="43"/>
+      <c r="J240" s="43"/>
+      <c r="K240" s="43"/>
+      <c r="L240" s="43"/>
+      <c r="M240" s="43"/>
+      <c r="N240" s="43"/>
+      <c r="O240" s="43"/>
+      <c r="P240" s="45"/>
+      <c r="Q240" s="45"/>
     </row>
     <row r="241" spans="1:17" ht="15.6">
       <c r="A241" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B241" s="63" t="s">
-        <v>408</v>
+        <v>565</v>
+      </c>
+      <c r="B241" s="69" t="s">
+        <v>471</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D241" s="19">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="E241" s="19">
-        <v>37</v>
-      </c>
-      <c r="F241" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="F241" s="19">
+        <v>6</v>
+      </c>
       <c r="G241" s="21">
         <f>(E241/5)+(F241)+(D241/7)</f>
-        <v>13.114285714285714</v>
+        <v>26.74285714285714</v>
       </c>
       <c r="H241" s="19">
-        <v>16</v>
-      </c>
-      <c r="I241" s="19">
         <v>14</v>
       </c>
-      <c r="J241" s="19">
-        <v>1</v>
-      </c>
+      <c r="I241" s="19"/>
+      <c r="J241" s="19"/>
       <c r="K241" s="19"/>
       <c r="L241" s="19"/>
       <c r="M241" s="19"/>
@@ -12111,33 +12111,33 @@
       <c r="P241" s="28"/>
       <c r="Q241" s="28"/>
     </row>
-    <row r="242" spans="1:17" ht="15.6" customHeight="1">
+    <row r="242" spans="1:17" ht="15.6">
       <c r="A242" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B242" s="65" t="s">
-        <v>378</v>
+        <v>287</v>
+      </c>
+      <c r="B242" s="63" t="s">
+        <v>408</v>
       </c>
       <c r="C242" s="39" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D242" s="19">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E242" s="19">
-        <v>9</v>
-      </c>
-      <c r="F242" s="19">
-        <v>4</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F242" s="19"/>
       <c r="G242" s="21">
         <f>(E242/5)+(F242)+(D242/7)</f>
-        <v>13.085714285714285</v>
+        <v>13.114285714285714</v>
       </c>
       <c r="H242" s="19">
-        <v>6</v>
-      </c>
-      <c r="I242" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="I242" s="19">
+        <v>14</v>
+      </c>
       <c r="J242" s="19">
         <v>1</v>
       </c>
@@ -12149,34 +12149,36 @@
       <c r="P242" s="28"/>
       <c r="Q242" s="28"/>
     </row>
-    <row r="243" spans="1:17" ht="15.6">
-      <c r="A243" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B243" s="64" t="s">
-        <v>494</v>
+    <row r="243" spans="1:17" ht="15.6" customHeight="1">
+      <c r="A243" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B243" s="65" t="s">
+        <v>378</v>
       </c>
       <c r="C243" s="39" t="s">
-        <v>369</v>
-      </c>
-      <c r="D243" s="19"/>
+        <v>371</v>
+      </c>
+      <c r="D243" s="19">
+        <v>51</v>
+      </c>
       <c r="E243" s="19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F243" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G243" s="21">
-        <f t="shared" ref="G243:G254" si="18">(E243/5)+(F243)+(D243/7)</f>
-        <v>11.6</v>
+        <f>(E243/5)+(F243)+(D243/7)</f>
+        <v>13.085714285714285</v>
       </c>
       <c r="H243" s="19">
-        <v>8</v>
-      </c>
-      <c r="I243" s="19">
-        <v>8</v>
-      </c>
-      <c r="J243" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="I243" s="19"/>
+      <c r="J243" s="19">
+        <v>1</v>
+      </c>
       <c r="K243" s="19"/>
       <c r="L243" s="19"/>
       <c r="M243" s="19"/>
@@ -12186,32 +12188,32 @@
       <c r="Q243" s="28"/>
     </row>
     <row r="244" spans="1:17" ht="15.6">
-      <c r="A244" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B244" s="63" t="s">
-        <v>376</v>
+      <c r="A244" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B244" s="64" t="s">
+        <v>494</v>
       </c>
       <c r="C244" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="D244" s="19">
-        <v>25</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="D244" s="19"/>
       <c r="E244" s="19">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F244" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G244" s="21">
-        <f>(E244/5)+(F244)+(D244/7)</f>
-        <v>10.571428571428571</v>
+        <f t="shared" ref="G244:G255" si="18">(E244/5)+(F244)+(D244/7)</f>
+        <v>11.6</v>
       </c>
       <c r="H244" s="19">
-        <v>10</v>
-      </c>
-      <c r="I244" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="I244" s="19">
+        <v>8</v>
+      </c>
       <c r="J244" s="19"/>
       <c r="K244" s="19"/>
       <c r="L244" s="19"/>
@@ -12221,31 +12223,31 @@
       <c r="P244" s="28"/>
       <c r="Q244" s="28"/>
     </row>
-    <row r="245" spans="1:17" ht="15.6" customHeight="1">
-      <c r="A245" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B245" s="65" t="s">
-        <v>495</v>
+    <row r="245" spans="1:17" ht="15.6">
+      <c r="A245" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B245" s="63" t="s">
+        <v>376</v>
       </c>
       <c r="C245" s="39" t="s">
         <v>370</v>
       </c>
       <c r="D245" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E245" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F245" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G245" s="21">
-        <f t="shared" si="18"/>
-        <v>9.3142857142857132</v>
+        <f>(E245/5)+(F245)+(D245/7)</f>
+        <v>10.571428571428571</v>
       </c>
       <c r="H245" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I245" s="19"/>
       <c r="J245" s="19"/>
@@ -12257,33 +12259,33 @@
       <c r="P245" s="28"/>
       <c r="Q245" s="28"/>
     </row>
-    <row r="246" spans="1:17" ht="15.6">
+    <row r="246" spans="1:17" ht="15.6" customHeight="1">
       <c r="A246" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B246" s="64" t="s">
-        <v>397</v>
+        <v>86</v>
+      </c>
+      <c r="B246" s="65" t="s">
+        <v>495</v>
       </c>
       <c r="C246" s="39" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D246" s="19">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E246" s="19">
-        <v>15</v>
-      </c>
-      <c r="F246" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="F246" s="19">
+        <v>4</v>
+      </c>
       <c r="G246" s="21">
-        <f>(E246/5)+(F246)+(D246/7)</f>
-        <v>8</v>
+        <f t="shared" si="18"/>
+        <v>9.3142857142857132</v>
       </c>
       <c r="H246" s="19">
-        <v>15</v>
-      </c>
-      <c r="I246" s="19">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I246" s="19"/>
       <c r="J246" s="19"/>
       <c r="K246" s="19"/>
       <c r="L246" s="19"/>
@@ -12295,29 +12297,31 @@
     </row>
     <row r="247" spans="1:17" ht="15.6">
       <c r="A247" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B247" s="65" t="s">
-        <v>495</v>
+        <v>295</v>
+      </c>
+      <c r="B247" s="64" t="s">
+        <v>397</v>
       </c>
       <c r="C247" s="39" t="s">
         <v>369</v>
       </c>
       <c r="D247" s="19">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E247" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F247" s="19"/>
       <c r="G247" s="21">
         <f>(E247/5)+(F247)+(D247/7)</f>
-        <v>7.7714285714285714</v>
+        <v>8</v>
       </c>
       <c r="H247" s="19">
+        <v>15</v>
+      </c>
+      <c r="I247" s="19">
         <v>13</v>
       </c>
-      <c r="I247" s="19"/>
       <c r="J247" s="19"/>
       <c r="K247" s="19"/>
       <c r="L247" s="19"/>
@@ -12329,103 +12333,99 @@
     </row>
     <row r="248" spans="1:17" ht="15.6">
       <c r="A248" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B248" s="64" t="s">
-        <v>414</v>
+        <v>343</v>
+      </c>
+      <c r="B248" s="65" t="s">
+        <v>495</v>
       </c>
       <c r="C248" s="39" t="s">
         <v>369</v>
       </c>
       <c r="D248" s="19">
-        <v>53</v>
-      </c>
-      <c r="E248" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="E248" s="19">
+        <v>16</v>
+      </c>
       <c r="F248" s="19"/>
       <c r="G248" s="21">
         <f>(E248/5)+(F248)+(D248/7)</f>
-        <v>7.5714285714285712</v>
+        <v>7.7714285714285714</v>
       </c>
       <c r="H248" s="19">
-        <v>11</v>
-      </c>
-      <c r="I248" s="19">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I248" s="19"/>
       <c r="J248" s="19"/>
       <c r="K248" s="19"/>
       <c r="L248" s="19"/>
       <c r="M248" s="19"/>
-      <c r="N248" s="19">
-        <v>10</v>
-      </c>
+      <c r="N248" s="19"/>
       <c r="O248" s="19"/>
       <c r="P248" s="28"/>
       <c r="Q248" s="28"/>
     </row>
     <row r="249" spans="1:17" ht="15.6">
       <c r="A249" s="4" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="B249" s="64" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="C249" s="39" t="s">
         <v>369</v>
       </c>
       <c r="D249" s="19">
-        <v>30</v>
-      </c>
-      <c r="E249" s="19">
-        <v>10</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E249" s="19"/>
       <c r="F249" s="19"/>
       <c r="G249" s="21">
         <f>(E249/5)+(F249)+(D249/7)</f>
-        <v>6.2857142857142856</v>
+        <v>7.5714285714285712</v>
       </c>
       <c r="H249" s="19">
         <v>11</v>
       </c>
-      <c r="I249" s="19"/>
-      <c r="J249" s="19">
-        <v>1</v>
-      </c>
+      <c r="I249" s="19">
+        <v>10</v>
+      </c>
+      <c r="J249" s="19"/>
       <c r="K249" s="19"/>
       <c r="L249" s="19"/>
       <c r="M249" s="19"/>
-      <c r="N249" s="19"/>
+      <c r="N249" s="19">
+        <v>10</v>
+      </c>
       <c r="O249" s="19"/>
       <c r="P249" s="28"/>
       <c r="Q249" s="28"/>
     </row>
     <row r="250" spans="1:17" ht="15.6">
       <c r="A250" s="4" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B250" s="64" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="C250" s="39" t="s">
         <v>369</v>
       </c>
       <c r="D250" s="19">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E250" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F250" s="19"/>
       <c r="G250" s="21">
         <f>(E250/5)+(F250)+(D250/7)</f>
-        <v>6.0857142857142854</v>
+        <v>6.2857142857142856</v>
       </c>
       <c r="H250" s="19">
         <v>11</v>
       </c>
-      <c r="I250" s="19">
-        <v>7</v>
-      </c>
+      <c r="I250" s="19"/>
       <c r="J250" s="19">
         <v>1</v>
       </c>
@@ -12437,32 +12437,36 @@
       <c r="P250" s="28"/>
       <c r="Q250" s="28"/>
     </row>
-    <row r="251" spans="1:17" ht="15.6" customHeight="1">
+    <row r="251" spans="1:17" ht="15.6">
       <c r="A251" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B251" s="70" t="s">
-        <v>496</v>
+        <v>269</v>
+      </c>
+      <c r="B251" s="64" t="s">
+        <v>406</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="D251" s="19"/>
+        <v>369</v>
+      </c>
+      <c r="D251" s="19">
+        <v>23</v>
+      </c>
       <c r="E251" s="19">
-        <v>9</v>
-      </c>
-      <c r="F251" s="19">
-        <v>3</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F251" s="19"/>
       <c r="G251" s="21">
-        <f t="shared" si="18"/>
-        <v>4.8</v>
+        <f>(E251/5)+(F251)+(D251/7)</f>
+        <v>6.0857142857142854</v>
       </c>
       <c r="H251" s="19">
-        <v>5</v>
-      </c>
-      <c r="I251" s="19"/>
-      <c r="J251" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="I251" s="19">
+        <v>7</v>
+      </c>
+      <c r="J251" s="19">
+        <v>1</v>
+      </c>
       <c r="K251" s="19"/>
       <c r="L251" s="19"/>
       <c r="M251" s="19"/>
@@ -12473,24 +12477,28 @@
     </row>
     <row r="252" spans="1:17" ht="15.6" customHeight="1">
       <c r="A252" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B252" s="64" t="s">
-        <v>432</v>
+        <v>54</v>
+      </c>
+      <c r="B252" s="70" t="s">
+        <v>496</v>
       </c>
       <c r="C252" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="D252" s="19">
-        <v>31</v>
-      </c>
-      <c r="E252" s="19"/>
-      <c r="F252" s="19"/>
+      <c r="D252" s="19"/>
+      <c r="E252" s="19">
+        <v>9</v>
+      </c>
+      <c r="F252" s="19">
+        <v>3</v>
+      </c>
       <c r="G252" s="21">
         <f t="shared" si="18"/>
-        <v>4.4285714285714288</v>
-      </c>
-      <c r="H252" s="19"/>
+        <v>4.8</v>
+      </c>
+      <c r="H252" s="19">
+        <v>5</v>
+      </c>
       <c r="I252" s="19"/>
       <c r="J252" s="19"/>
       <c r="K252" s="19"/>
@@ -12501,28 +12509,26 @@
       <c r="P252" s="28"/>
       <c r="Q252" s="28"/>
     </row>
-    <row r="253" spans="1:17" ht="15.6">
+    <row r="253" spans="1:17" ht="15.6" customHeight="1">
       <c r="A253" s="4" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="B253" s="64" t="s">
-        <v>497</v>
+        <v>432</v>
       </c>
       <c r="C253" s="39" t="s">
         <v>371</v>
       </c>
       <c r="D253" s="19">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E253" s="19"/>
       <c r="F253" s="19"/>
       <c r="G253" s="21">
-        <f>(E253/5)+(F253)+(D253/7)</f>
-        <v>3.7142857142857144</v>
-      </c>
-      <c r="H253" s="19">
-        <v>5</v>
-      </c>
+        <f t="shared" si="18"/>
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="H253" s="19"/>
       <c r="I253" s="19"/>
       <c r="J253" s="19"/>
       <c r="K253" s="19"/>
@@ -12535,24 +12541,26 @@
     </row>
     <row r="254" spans="1:17" ht="15.6">
       <c r="A254" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B254" s="64" t="s">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="C254" s="39" t="s">
         <v>371</v>
       </c>
       <c r="D254" s="19">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E254" s="19"/>
       <c r="F254" s="19"/>
       <c r="G254" s="21">
-        <f t="shared" si="18"/>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="H254" s="19"/>
+        <f>(E254/5)+(F254)+(D254/7)</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="H254" s="19">
+        <v>5</v>
+      </c>
       <c r="I254" s="19"/>
       <c r="J254" s="19"/>
       <c r="K254" s="19"/>
@@ -12563,86 +12571,80 @@
       <c r="P254" s="28"/>
       <c r="Q254" s="28"/>
     </row>
-    <row r="255" spans="1:17" ht="18">
-      <c r="A255" s="41" t="s">
+    <row r="255" spans="1:17" ht="15.6">
+      <c r="A255" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B255" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="C255" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="D255" s="19">
+        <v>10</v>
+      </c>
+      <c r="E255" s="19"/>
+      <c r="F255" s="19"/>
+      <c r="G255" s="21">
+        <f t="shared" si="18"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="H255" s="19"/>
+      <c r="I255" s="19"/>
+      <c r="J255" s="19"/>
+      <c r="K255" s="19"/>
+      <c r="L255" s="19"/>
+      <c r="M255" s="19"/>
+      <c r="N255" s="19"/>
+      <c r="O255" s="19"/>
+      <c r="P255" s="28"/>
+      <c r="Q255" s="28"/>
+    </row>
+    <row r="256" spans="1:17" ht="18">
+      <c r="A256" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B255" s="66"/>
-      <c r="C255" s="42"/>
-      <c r="D255" s="43"/>
-      <c r="E255" s="43"/>
-      <c r="F255" s="43"/>
-      <c r="G255" s="44"/>
-      <c r="H255" s="43"/>
-      <c r="I255" s="43"/>
-      <c r="J255" s="43"/>
-      <c r="K255" s="43"/>
-      <c r="L255" s="43"/>
-      <c r="M255" s="43"/>
-      <c r="N255" s="43"/>
-      <c r="O255" s="43"/>
-      <c r="P255" s="45"/>
-      <c r="Q255" s="45"/>
-    </row>
-    <row r="256" spans="1:17" ht="15.6">
-      <c r="A256" s="5" t="s">
+      <c r="B256" s="66"/>
+      <c r="C256" s="42"/>
+      <c r="D256" s="43"/>
+      <c r="E256" s="43"/>
+      <c r="F256" s="43"/>
+      <c r="G256" s="44"/>
+      <c r="H256" s="43"/>
+      <c r="I256" s="43"/>
+      <c r="J256" s="43"/>
+      <c r="K256" s="43"/>
+      <c r="L256" s="43"/>
+      <c r="M256" s="43"/>
+      <c r="N256" s="43"/>
+      <c r="O256" s="43"/>
+      <c r="P256" s="45"/>
+      <c r="Q256" s="45"/>
+    </row>
+    <row r="257" spans="1:17" ht="15.6">
+      <c r="A257" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B256" s="63" t="s">
+      <c r="B257" s="63" t="s">
         <v>470</v>
       </c>
-      <c r="C256" s="39" t="s">
+      <c r="C257" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="D256" s="19"/>
-      <c r="E256" s="19">
+      <c r="D257" s="19"/>
+      <c r="E257" s="19">
         <v>12</v>
       </c>
-      <c r="F256" s="19">
+      <c r="F257" s="19">
         <v>9</v>
       </c>
-      <c r="G256" s="21">
-        <f t="shared" ref="G256:G261" si="19">(E256/5)+(F256)+(D256/7)</f>
+      <c r="G257" s="21">
+        <f t="shared" ref="G257:G262" si="19">(E257/5)+(F257)+(D257/7)</f>
         <v>11.4</v>
       </c>
-      <c r="H256" s="19">
+      <c r="H257" s="19">
         <v>9</v>
-      </c>
-      <c r="I256" s="19"/>
-      <c r="J256" s="19"/>
-      <c r="K256" s="19"/>
-      <c r="L256" s="19"/>
-      <c r="M256" s="19"/>
-      <c r="N256" s="19"/>
-      <c r="O256" s="19"/>
-      <c r="P256" s="28"/>
-      <c r="Q256" s="28"/>
-    </row>
-    <row r="257" spans="1:17" ht="15.6">
-      <c r="A257" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B257" s="64" t="s">
-        <v>498</v>
-      </c>
-      <c r="C257" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D257" s="19">
-        <v>26</v>
-      </c>
-      <c r="E257" s="19">
-        <v>5</v>
-      </c>
-      <c r="F257" s="19">
-        <v>4</v>
-      </c>
-      <c r="G257" s="21">
-        <f t="shared" si="19"/>
-        <v>8.7142857142857153</v>
-      </c>
-      <c r="H257" s="19">
-        <v>4</v>
       </c>
       <c r="I257" s="19"/>
       <c r="J257" s="19"/>
@@ -12656,27 +12658,29 @@
     </row>
     <row r="258" spans="1:17" ht="15.6">
       <c r="A258" s="4" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="B258" s="64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C258" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="D258" s="19"/>
+        <v>131</v>
+      </c>
+      <c r="D258" s="19">
+        <v>26</v>
+      </c>
       <c r="E258" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F258" s="19">
         <v>4</v>
       </c>
       <c r="G258" s="21">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>8.7142857142857153</v>
       </c>
       <c r="H258" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I258" s="19"/>
       <c r="J258" s="19"/>
@@ -12689,28 +12693,28 @@
       <c r="Q258" s="28"/>
     </row>
     <row r="259" spans="1:17" ht="15.6">
-      <c r="A259" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B259" s="63" t="s">
-        <v>392</v>
+      <c r="A259" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B259" s="64" t="s">
+        <v>499</v>
       </c>
       <c r="C259" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D259" s="19">
-        <v>11</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D259" s="19"/>
       <c r="E259" s="19">
-        <v>21</v>
-      </c>
-      <c r="F259" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="F259" s="19">
+        <v>4</v>
+      </c>
       <c r="G259" s="21">
         <f t="shared" si="19"/>
-        <v>5.7714285714285714</v>
+        <v>6</v>
       </c>
       <c r="H259" s="19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
@@ -12723,26 +12727,28 @@
       <c r="Q259" s="28"/>
     </row>
     <row r="260" spans="1:17" ht="15.6">
-      <c r="A260" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B260" s="64" t="s">
-        <v>388</v>
+      <c r="A260" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B260" s="63" t="s">
+        <v>392</v>
       </c>
       <c r="C260" s="39" t="s">
         <v>131</v>
       </c>
       <c r="D260" s="19">
-        <v>37</v>
-      </c>
-      <c r="E260" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="E260" s="19">
+        <v>21</v>
+      </c>
       <c r="F260" s="19"/>
       <c r="G260" s="21">
         <f t="shared" si="19"/>
-        <v>5.2857142857142856</v>
+        <v>5.7714285714285714</v>
       </c>
       <c r="H260" s="19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
@@ -12756,30 +12762,28 @@
     </row>
     <row r="261" spans="1:17" ht="15.6">
       <c r="A261" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B261" s="65" t="s">
-        <v>500</v>
+        <v>87</v>
+      </c>
+      <c r="B261" s="64" t="s">
+        <v>388</v>
       </c>
       <c r="C261" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D261" s="19"/>
-      <c r="E261" s="19">
-        <v>22</v>
-      </c>
+      <c r="D261" s="19">
+        <v>37</v>
+      </c>
+      <c r="E261" s="19"/>
       <c r="F261" s="19"/>
       <c r="G261" s="21">
         <f t="shared" si="19"/>
-        <v>4.4000000000000004</v>
+        <v>5.2857142857142856</v>
       </c>
       <c r="H261" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I261" s="19"/>
-      <c r="J261" s="19">
-        <v>1</v>
-      </c>
+      <c r="J261" s="19"/>
       <c r="K261" s="19"/>
       <c r="L261" s="19"/>
       <c r="M261" s="19"/>
@@ -12790,32 +12794,30 @@
     </row>
     <row r="262" spans="1:17" ht="15.6">
       <c r="A262" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B262" s="64" t="s">
-        <v>414</v>
+        <v>190</v>
+      </c>
+      <c r="B262" s="65" t="s">
+        <v>500</v>
       </c>
       <c r="C262" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D262" s="19">
+      <c r="D262" s="19"/>
+      <c r="E262" s="19">
         <v>22</v>
-      </c>
-      <c r="E262" s="19">
-        <v>5</v>
       </c>
       <c r="F262" s="19"/>
       <c r="G262" s="21">
-        <f t="shared" ref="G262:G269" si="20">(E262/5)+(F262)+(D262/7)</f>
-        <v>4.1428571428571423</v>
+        <f t="shared" si="19"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H262" s="19">
-        <v>5</v>
-      </c>
-      <c r="I262" s="19">
-        <v>10</v>
-      </c>
-      <c r="J262" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="I262" s="19"/>
+      <c r="J262" s="19">
+        <v>1</v>
+      </c>
       <c r="K262" s="19"/>
       <c r="L262" s="19"/>
       <c r="M262" s="19"/>
@@ -12826,29 +12828,31 @@
     </row>
     <row r="263" spans="1:17" ht="15.6">
       <c r="A263" s="4" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="B263" s="64" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="C263" s="39" t="s">
         <v>131</v>
       </c>
       <c r="D263" s="19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E263" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F263" s="19"/>
       <c r="G263" s="21">
-        <f>(E263/5)+(F263)+(D263/7)</f>
-        <v>3.9714285714285715</v>
+        <f t="shared" ref="G263:G270" si="20">(E263/5)+(F263)+(D263/7)</f>
+        <v>4.1428571428571423</v>
       </c>
       <c r="H263" s="19">
-        <v>6</v>
-      </c>
-      <c r="I263" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="I263" s="19">
+        <v>10</v>
+      </c>
       <c r="J263" s="19"/>
       <c r="K263" s="19"/>
       <c r="L263" s="19"/>
@@ -12860,29 +12864,29 @@
     </row>
     <row r="264" spans="1:17" ht="15.6">
       <c r="A264" s="4" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="B264" s="64" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="C264" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D264" s="19"/>
+      <c r="D264" s="19">
+        <v>18</v>
+      </c>
       <c r="E264" s="19">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F264" s="19"/>
       <c r="G264" s="21">
         <f>(E264/5)+(F264)+(D264/7)</f>
-        <v>3.4</v>
+        <v>3.9714285714285715</v>
       </c>
       <c r="H264" s="19">
         <v>6</v>
       </c>
-      <c r="I264" s="19">
-        <v>3</v>
-      </c>
+      <c r="I264" s="19"/>
       <c r="J264" s="19"/>
       <c r="K264" s="19"/>
       <c r="L264" s="19"/>
@@ -12894,27 +12898,29 @@
     </row>
     <row r="265" spans="1:17" ht="15.6">
       <c r="A265" s="4" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="B265" s="64" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C265" s="39" t="s">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="D265" s="19"/>
       <c r="E265" s="19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F265" s="19"/>
       <c r="G265" s="21">
         <f>(E265/5)+(F265)+(D265/7)</f>
+        <v>3.4</v>
+      </c>
+      <c r="H265" s="19">
+        <v>6</v>
+      </c>
+      <c r="I265" s="19">
         <v>3</v>
       </c>
-      <c r="H265" s="19">
-        <v>10</v>
-      </c>
-      <c r="I265" s="19"/>
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
       <c r="L265" s="19"/>
@@ -12926,25 +12932,25 @@
     </row>
     <row r="266" spans="1:17" ht="15.6">
       <c r="A266" s="4" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="B266" s="64" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="C266" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="D266" s="19">
-        <v>20</v>
-      </c>
-      <c r="E266" s="19"/>
+      <c r="D266" s="19"/>
+      <c r="E266" s="19">
+        <v>15</v>
+      </c>
       <c r="F266" s="19"/>
       <c r="G266" s="21">
-        <f t="shared" si="20"/>
-        <v>2.8571428571428572</v>
+        <f>(E266/5)+(F266)+(D266/7)</f>
+        <v>3</v>
       </c>
       <c r="H266" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
@@ -12958,29 +12964,27 @@
     </row>
     <row r="267" spans="1:17" ht="15.6">
       <c r="A267" s="4" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B267" s="64" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="C267" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="D267" s="19"/>
-      <c r="E267" s="19">
-        <v>14</v>
-      </c>
+      <c r="D267" s="19">
+        <v>20</v>
+      </c>
+      <c r="E267" s="19"/>
       <c r="F267" s="19"/>
       <c r="G267" s="21">
         <f t="shared" si="20"/>
-        <v>2.8</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="H267" s="19">
-        <v>9</v>
-      </c>
-      <c r="I267" s="19">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I267" s="19"/>
       <c r="J267" s="19"/>
       <c r="K267" s="19"/>
       <c r="L267" s="19"/>
@@ -12992,13 +12996,13 @@
     </row>
     <row r="268" spans="1:17" ht="15.6">
       <c r="A268" s="4" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="B268" s="64" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="C268" s="39" t="s">
-        <v>131</v>
+        <v>373</v>
       </c>
       <c r="D268" s="19"/>
       <c r="E268" s="19">
@@ -13006,11 +13010,11 @@
       </c>
       <c r="F268" s="19"/>
       <c r="G268" s="21">
-        <f>(E268/5)+(F268)+(D268/7)</f>
+        <f t="shared" si="20"/>
         <v>2.8</v>
       </c>
       <c r="H268" s="19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I268" s="19">
         <v>5</v>
@@ -13026,35 +13030,33 @@
     </row>
     <row r="269" spans="1:17" ht="15.6">
       <c r="A269" s="4" t="s">
-        <v>297</v>
+        <v>193</v>
       </c>
       <c r="B269" s="64" t="s">
-        <v>501</v>
+        <v>398</v>
       </c>
       <c r="C269" s="39" t="s">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="D269" s="19"/>
       <c r="E269" s="19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F269" s="19"/>
       <c r="G269" s="21">
-        <f t="shared" si="20"/>
-        <v>2.4</v>
+        <f>(E269/5)+(F269)+(D269/7)</f>
+        <v>2.8</v>
       </c>
       <c r="H269" s="19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I269" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J269" s="19"/>
       <c r="K269" s="19"/>
       <c r="L269" s="19"/>
-      <c r="M269" s="19">
-        <v>7</v>
-      </c>
+      <c r="M269" s="19"/>
       <c r="N269" s="19"/>
       <c r="O269" s="19"/>
       <c r="P269" s="28"/>
@@ -13062,33 +13064,35 @@
     </row>
     <row r="270" spans="1:17" ht="15.6">
       <c r="A270" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B270" s="65" t="s">
-        <v>391</v>
+        <v>297</v>
+      </c>
+      <c r="B270" s="64" t="s">
+        <v>501</v>
       </c>
       <c r="C270" s="39" t="s">
         <v>373</v>
       </c>
       <c r="D270" s="19"/>
       <c r="E270" s="19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F270" s="19"/>
       <c r="G270" s="21">
-        <f>(E270/5)+(F270)+(D270/7)</f>
-        <v>1.8</v>
+        <f t="shared" si="20"/>
+        <v>2.4</v>
       </c>
       <c r="H270" s="19">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I270" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
       <c r="L270" s="19"/>
-      <c r="M270" s="19"/>
+      <c r="M270" s="19">
+        <v>7</v>
+      </c>
       <c r="N270" s="19"/>
       <c r="O270" s="19"/>
       <c r="P270" s="28"/>
@@ -13096,25 +13100,25 @@
     </row>
     <row r="271" spans="1:17" ht="15.6">
       <c r="A271" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B271" s="64" t="s">
-        <v>478</v>
+        <v>334</v>
+      </c>
+      <c r="B271" s="65" t="s">
+        <v>391</v>
       </c>
       <c r="C271" s="39" t="s">
-        <v>131</v>
+        <v>373</v>
       </c>
       <c r="D271" s="19"/>
       <c r="E271" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F271" s="19"/>
       <c r="G271" s="21">
         <f>(E271/5)+(F271)+(D271/7)</f>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H271" s="19">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I271" s="19">
         <v>8</v>
@@ -13130,92 +13134,99 @@
     </row>
     <row r="272" spans="1:17" ht="15.6">
       <c r="A272" s="4" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="B272" s="64" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="C272" s="39" t="s">
         <v>131</v>
       </c>
       <c r="D272" s="19"/>
-      <c r="E272" s="19"/>
+      <c r="E272" s="19">
+        <v>8</v>
+      </c>
       <c r="F272" s="19"/>
       <c r="G272" s="21">
         <f>(E272/5)+(F272)+(D272/7)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H272" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I272" s="19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J272" s="19"/>
       <c r="K272" s="19"/>
       <c r="L272" s="19"/>
       <c r="M272" s="19"/>
       <c r="N272" s="19"/>
-      <c r="O272" s="19">
-        <v>15</v>
-      </c>
+      <c r="O272" s="19"/>
       <c r="P272" s="28"/>
       <c r="Q272" s="28"/>
     </row>
-    <row r="273" spans="1:17" ht="18">
-      <c r="A273" s="41" t="s">
+    <row r="273" spans="1:17" ht="15.6">
+      <c r="A273" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B273" s="64" t="s">
+        <v>502</v>
+      </c>
+      <c r="C273" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D273" s="19"/>
+      <c r="E273" s="19"/>
+      <c r="F273" s="19"/>
+      <c r="G273" s="21">
+        <f>(E273/5)+(F273)+(D273/7)</f>
+        <v>0</v>
+      </c>
+      <c r="H273" s="19">
+        <v>7</v>
+      </c>
+      <c r="I273" s="19">
+        <v>4</v>
+      </c>
+      <c r="J273" s="19"/>
+      <c r="K273" s="19"/>
+      <c r="L273" s="19"/>
+      <c r="M273" s="19"/>
+      <c r="N273" s="19"/>
+      <c r="O273" s="19">
+        <v>15</v>
+      </c>
+      <c r="P273" s="28"/>
+      <c r="Q273" s="28"/>
+    </row>
+    <row r="274" spans="1:17" ht="18">
+      <c r="A274" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B273" s="66"/>
-      <c r="C273" s="42"/>
-      <c r="D273" s="43"/>
-      <c r="E273" s="43"/>
-      <c r="F273" s="43"/>
-      <c r="G273" s="44"/>
-      <c r="H273" s="43"/>
-      <c r="I273" s="43"/>
-      <c r="J273" s="43"/>
-      <c r="K273" s="43"/>
-      <c r="L273" s="43"/>
-      <c r="M273" s="43"/>
-      <c r="N273" s="43"/>
-      <c r="O273" s="43"/>
-      <c r="P273" s="45"/>
-      <c r="Q273" s="45"/>
-    </row>
-    <row r="274" spans="1:17" ht="15.6">
-      <c r="A274" s="4" t="s">
+      <c r="B274" s="66"/>
+      <c r="C274" s="42"/>
+      <c r="D274" s="43"/>
+      <c r="E274" s="43"/>
+      <c r="F274" s="43"/>
+      <c r="G274" s="44"/>
+      <c r="H274" s="43"/>
+      <c r="I274" s="43"/>
+      <c r="J274" s="43"/>
+      <c r="K274" s="43"/>
+      <c r="L274" s="43"/>
+      <c r="M274" s="43"/>
+      <c r="N274" s="43"/>
+      <c r="O274" s="43"/>
+      <c r="P274" s="45"/>
+      <c r="Q274" s="45"/>
+    </row>
+    <row r="275" spans="1:17" ht="15.6">
+      <c r="A275" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B274" s="64" t="s">
+      <c r="B275" s="64" t="s">
         <v>395</v>
-      </c>
-      <c r="C274" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D274" s="19"/>
-      <c r="E274" s="19"/>
-      <c r="F274" s="19"/>
-      <c r="G274" s="21"/>
-      <c r="H274" s="19"/>
-      <c r="I274" s="19"/>
-      <c r="J274" s="19"/>
-      <c r="K274" s="19"/>
-      <c r="L274" s="19"/>
-      <c r="M274" s="19"/>
-      <c r="N274" s="19"/>
-      <c r="O274" s="19"/>
-      <c r="P274" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q274" s="28"/>
-    </row>
-    <row r="275" spans="1:17" ht="28.8">
-      <c r="A275" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B275" s="64" t="s">
-        <v>497</v>
       </c>
       <c r="C275" s="39" t="s">
         <v>158</v>
@@ -13233,9 +13244,36 @@
       <c r="N275" s="19"/>
       <c r="O275" s="19"/>
       <c r="P275" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q275" s="28"/>
+    </row>
+    <row r="276" spans="1:17" ht="28.8">
+      <c r="A276" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B276" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="C276" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D276" s="19"/>
+      <c r="E276" s="19"/>
+      <c r="F276" s="19"/>
+      <c r="G276" s="21"/>
+      <c r="H276" s="19"/>
+      <c r="I276" s="19"/>
+      <c r="J276" s="19"/>
+      <c r="K276" s="19"/>
+      <c r="L276" s="19"/>
+      <c r="M276" s="19"/>
+      <c r="N276" s="19"/>
+      <c r="O276" s="19"/>
+      <c r="P276" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="Q275" s="28"/>
+      <c r="Q276" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:N1048576">
@@ -13519,7 +13557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -13649,63 +13687,63 @@
         <v>29</v>
       </c>
       <c r="D2" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E2" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>22</v>
       </c>
       <c r="F2" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>23</v>
       </c>
       <c r="G2" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="H2" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>13.742857142857142</v>
       </c>
       <c r="I2" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>24</v>
       </c>
       <c r="J2" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>13</v>
       </c>
       <c r="K2" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L2" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M2" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N2" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O2" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P2" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))+IF($C2 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C2,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="Q2" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R2" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B2,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B2,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="T2" t="s">
@@ -13769,63 +13807,63 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E3" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>16</v>
       </c>
       <c r="G3" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H3" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>3.2</v>
       </c>
       <c r="I3" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="J3" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="K3" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L3" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N3" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O3" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P3" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))+IF($C3 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C3,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R3" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B3,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B3,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="T3" t="s">
@@ -13889,63 +13927,63 @@
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E4" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>18</v>
       </c>
       <c r="F4" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>18</v>
       </c>
       <c r="G4" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H4" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10.171428571428571</v>
       </c>
       <c r="I4" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>17</v>
       </c>
       <c r="J4" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="K4" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L4" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M4" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N4" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="O4" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P4" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))+IF($C4 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C4,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R4" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B4,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B4,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="T4" t="s">
@@ -14011,63 +14049,63 @@
         <v>170</v>
       </c>
       <c r="D5" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E5" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>33</v>
       </c>
       <c r="F5" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="G5" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H5" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5.9142857142857146</v>
       </c>
       <c r="I5" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="J5" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="K5" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L5" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M5" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N5" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O5" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P5" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))+IF($C5 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C5,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="Q5" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R5" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B5,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B5,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14080,63 +14118,63 @@
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E6" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>34</v>
       </c>
       <c r="F6" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>15</v>
       </c>
       <c r="G6" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7.8571428571428568</v>
       </c>
       <c r="I6" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>19</v>
       </c>
       <c r="J6" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>1</v>
       </c>
       <c r="L6" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M6" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N6" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O6" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P6" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))+IF($C6 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C6,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R6" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B6,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B6,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14149,63 +14187,63 @@
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E7" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>13</v>
       </c>
       <c r="F7" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>11</v>
       </c>
       <c r="G7" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H7" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8.0571428571428569</v>
       </c>
       <c r="I7" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="J7" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K7" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L7" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M7" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N7" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O7" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P7" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))+IF($C7 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C7,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q7" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B7,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B7,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14218,63 +14256,63 @@
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E8" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>51</v>
       </c>
       <c r="F8" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="G8" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8.2857142857142847</v>
       </c>
       <c r="I8" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="J8" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="K8" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L8" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M8" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N8" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O8" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P8" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))+IF($C8 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C8,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R8" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B8,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B8,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14287,63 +14325,63 @@
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E9" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>18</v>
       </c>
       <c r="F9" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>21</v>
       </c>
       <c r="G9" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H9" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10.77142857142857</v>
       </c>
       <c r="I9" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="J9" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="K9" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L9" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M9" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N9" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O9" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P9" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))+IF($C9 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C9,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="Q9" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R9" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B9,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B9,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14358,63 +14396,63 @@
         <v>175</v>
       </c>
       <c r="D10" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Leather</v>
       </c>
       <c r="E10" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>64</v>
       </c>
       <c r="F10" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>29</v>
       </c>
       <c r="G10" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9</v>
       </c>
       <c r="H10" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>19.085714285714285</v>
       </c>
       <c r="I10" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>14</v>
       </c>
       <c r="J10" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K10" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L10" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M10" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N10" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O10" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P10" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))+IF($C10 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C10,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="Q10" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R10" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B10,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B10,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14427,63 +14465,63 @@
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E11" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="F11" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>15</v>
       </c>
       <c r="G11" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="H11" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9.7142857142857135</v>
       </c>
       <c r="I11" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="J11" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K11" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L11" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M11" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N11" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O11" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P11" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))+IF($C11 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C11,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R11" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B11,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B11,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14496,63 +14534,63 @@
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E12" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F12" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="G12" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="H12" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="I12" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="J12" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K12" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L12" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M12" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N12" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O12" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P12" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))+IF($C12 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C12,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R12" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B12,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B12,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14565,63 +14603,63 @@
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E13" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>46</v>
       </c>
       <c r="F13" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="G13" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8.9714285714285715</v>
       </c>
       <c r="I13" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9</v>
       </c>
       <c r="J13" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K13" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L13" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M13" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N13" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O13" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P13" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))+IF($C13 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C13,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q13" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R13" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B13,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B13,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14634,63 +14672,63 @@
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E14" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>23</v>
       </c>
       <c r="F14" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G14" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>3.2857142857142856</v>
       </c>
       <c r="I14" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="J14" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K14" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L14" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M14" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N14" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O14" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P14" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))+IF($C14 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C14,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="Q14" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R14" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B14,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B14,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14703,63 +14741,63 @@
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E15" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F15" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="I15" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="J15" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K15" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L15" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M15" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N15" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O15" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P15" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))+IF($C15 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C15,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q15" s="28" t="str">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>+204/408  damage/healing for 20 sec. Every cast reduces bonus by 17/34</v>
       </c>
       <c r="R15" s="28" t="str">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B15,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B15,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>2 min</v>
       </c>
     </row>
@@ -14772,63 +14810,63 @@
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>1H Mace</v>
       </c>
       <c r="E16" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>26</v>
       </c>
       <c r="F16" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="G16" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H16" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9.3142857142857132</v>
       </c>
       <c r="I16" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9</v>
       </c>
       <c r="J16" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K16" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L16" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M16" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N16" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O16" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P16" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))+IF($C16 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C16,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R16" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B16,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B16,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14841,63 +14879,63 @@
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>OH</v>
       </c>
       <c r="E17" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>37</v>
       </c>
       <c r="F17" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G17" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5.2857142857142856</v>
       </c>
       <c r="I17" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="J17" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K17" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L17" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M17" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N17" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O17" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P17" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))+IF($C17 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C17,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R17" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B17,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B17,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14910,63 +14948,63 @@
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E18" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F18" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="I18" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="J18" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K18" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L18" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M18" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N18" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O18" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P18" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))+IF($C18 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C18,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="28" t="str">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>LHW +53</v>
       </c>
       <c r="R18" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B18,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B18,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14978,51 +15016,51 @@
       <c r="C19" s="48"/>
       <c r="D19" s="34"/>
       <c r="E19" s="19">
-        <f>SUM(E2:E18)</f>
+        <f t="shared" ref="E19:P19" si="3">SUM(E2:E18)</f>
         <v>397</v>
       </c>
       <c r="F19" s="19">
-        <f>SUM(F2:F18)</f>
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
       <c r="G19" s="19">
-        <f>SUM(G2:G18)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="H19" s="21">
-        <f>SUM(H2:H18)</f>
+        <f t="shared" si="3"/>
         <v>131.65714285714284</v>
       </c>
       <c r="I19" s="19">
-        <f>SUM(I2:I18)</f>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="J19" s="19">
-        <f>SUM(J2:J18)</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="K19" s="19">
-        <f>SUM(K2:K18)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L19" s="19">
-        <f>SUM(L2:L18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M19" s="19">
-        <f>SUM(M2:M18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N19" s="19">
-        <f>SUM(N2:N18)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="O19" s="19">
-        <f>SUM(O2:O18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P19" s="19">
-        <f>SUM(P2:P18)</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="Q19" s="28" t="s">
@@ -15129,63 +15167,63 @@
         <v>29</v>
       </c>
       <c r="D22" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E22" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>22</v>
       </c>
       <c r="F22" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>23</v>
       </c>
       <c r="G22" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="H22" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>13.742857142857142</v>
       </c>
       <c r="I22" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>24</v>
       </c>
       <c r="J22" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>13</v>
       </c>
       <c r="K22" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L22" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M22" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N22" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O22" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P22" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))+IF($C22 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C22,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="Q22" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R22" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B22,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B22,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15198,63 +15236,63 @@
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E23" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F23" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>16</v>
       </c>
       <c r="G23" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H23" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>3.2</v>
       </c>
       <c r="I23" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="J23" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="K23" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L23" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M23" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N23" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O23" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P23" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))+IF($C23 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C23,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R23" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B23,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B23,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15267,63 +15305,63 @@
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E24" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>18</v>
       </c>
       <c r="F24" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>18</v>
       </c>
       <c r="G24" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H24" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10.171428571428571</v>
       </c>
       <c r="I24" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>17</v>
       </c>
       <c r="J24" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="K24" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L24" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M24" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N24" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="O24" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P24" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))+IF($C24 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C24,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R24" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B24,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B24,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15338,63 +15376,63 @@
         <v>170</v>
       </c>
       <c r="D25" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E25" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>33</v>
       </c>
       <c r="F25" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="G25" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5.9142857142857146</v>
       </c>
       <c r="I25" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="J25" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="K25" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L25" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M25" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N25" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O25" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P25" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))+IF($C25 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C25,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="Q25" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R25" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B25,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B25,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15407,63 +15445,63 @@
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E26" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>34</v>
       </c>
       <c r="F26" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>15</v>
       </c>
       <c r="G26" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H26" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7.8571428571428568</v>
       </c>
       <c r="I26" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>19</v>
       </c>
       <c r="J26" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K26" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>1</v>
       </c>
       <c r="L26" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M26" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N26" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O26" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P26" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))+IF($C26 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C26,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q26" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R26" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B26,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B26,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15476,63 +15514,63 @@
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E27" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>13</v>
       </c>
       <c r="F27" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>11</v>
       </c>
       <c r="G27" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H27" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8.0571428571428569</v>
       </c>
       <c r="I27" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="J27" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K27" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L27" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M27" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N27" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O27" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P27" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))+IF($C27 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C27,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R27" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B27,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B27,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15545,63 +15583,63 @@
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E28" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>51</v>
       </c>
       <c r="F28" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="G28" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H28" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8.2857142857142847</v>
       </c>
       <c r="I28" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="J28" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="K28" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L28" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M28" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N28" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O28" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P28" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))+IF($C28 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C28,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R28" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B28,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B28,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15614,63 +15652,63 @@
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E29" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>18</v>
       </c>
       <c r="F29" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>21</v>
       </c>
       <c r="G29" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H29" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10.77142857142857</v>
       </c>
       <c r="I29" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="J29" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="K29" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L29" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M29" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N29" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O29" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P29" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))+IF($C29 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C29,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="Q29" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R29" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B29,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B29,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15683,55 +15721,55 @@
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Leather</v>
       </c>
       <c r="E30" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>51</v>
       </c>
       <c r="F30" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>14</v>
       </c>
       <c r="G30" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9</v>
       </c>
       <c r="H30" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>19.085714285714285</v>
       </c>
       <c r="I30" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>14</v>
       </c>
       <c r="J30" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K30" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L30" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M30" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N30" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O30" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P30" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B30,Itemstatlist!$A$10:$A$1210, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B30,Itemstatlist!$A$10:$A$1211, 0))+IF($C30 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C30,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="Q30" s="28"/>
@@ -15746,63 +15784,63 @@
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E31" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="F31" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>15</v>
       </c>
       <c r="G31" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="H31" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9.7142857142857135</v>
       </c>
       <c r="I31" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="J31" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K31" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L31" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M31" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N31" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O31" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P31" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))+IF($C31 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C31,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q31" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R31" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B31,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B31,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15815,55 +15853,55 @@
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E32" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F32" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="G32" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="H32" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="I32" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="J32" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K32" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L32" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M32" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N32" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O32" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P32" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B32,Itemstatlist!$A$10:$A$1210, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B32,Itemstatlist!$A$10:$A$1211, 0))+IF($C32 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C32,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q32" s="28"/>
@@ -15878,63 +15916,63 @@
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E33" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>46</v>
       </c>
       <c r="F33" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="G33" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H33" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8.9714285714285715</v>
       </c>
       <c r="I33" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9</v>
       </c>
       <c r="J33" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K33" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L33" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M33" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N33" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O33" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P33" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))+IF($C33 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C33,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q33" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R33" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B33,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B33,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15947,55 +15985,55 @@
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E34" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>23</v>
       </c>
       <c r="F34" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G34" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>3.2857142857142856</v>
       </c>
       <c r="I34" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="J34" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K34" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L34" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M34" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N34" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O34" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P34" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B34,Itemstatlist!$A$10:$A$1210, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B34,Itemstatlist!$A$10:$A$1211, 0))+IF($C34 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C34,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="Q34" s="28"/>
@@ -16010,63 +16048,63 @@
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E35" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F35" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G35" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H35" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="I35" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="J35" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K35" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L35" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M35" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N35" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O35" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P35" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))+IF($C35 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C35,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q35" s="28" t="str">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>+204/408  damage/healing for 20 sec. Every cast reduces bonus by 17/34</v>
       </c>
       <c r="R35" s="28" t="str">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B35,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B35,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>2 min</v>
       </c>
     </row>
@@ -16079,63 +16117,63 @@
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>1H Mace</v>
       </c>
       <c r="E36" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>26</v>
       </c>
       <c r="F36" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="G36" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H36" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9.3142857142857132</v>
       </c>
       <c r="I36" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9</v>
       </c>
       <c r="J36" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K36" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L36" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M36" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N36" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O36" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P36" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))+IF($C36 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C36,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R36" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B36,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B36,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16148,63 +16186,63 @@
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>OH</v>
       </c>
       <c r="E37" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>37</v>
       </c>
       <c r="F37" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G37" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H37" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5.2857142857142856</v>
       </c>
       <c r="I37" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="J37" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K37" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L37" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M37" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N37" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O37" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P37" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))+IF($C37 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C37,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q37" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R37" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B37,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B37,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16217,63 +16255,63 @@
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E38" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F38" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G38" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H38" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="I38" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="J38" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K38" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L38" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M38" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N38" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O38" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P38" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))+IF($C38 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C38,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q38" s="28" t="str">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>LHW +53</v>
       </c>
       <c r="R38" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B38,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B38,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16285,51 +16323,51 @@
       <c r="C39" s="48"/>
       <c r="D39" s="34"/>
       <c r="E39" s="19">
-        <f>SUM(E22:E38)</f>
+        <f t="shared" ref="E39:P39" si="4">SUM(E22:E38)</f>
         <v>384</v>
       </c>
       <c r="F39" s="19">
-        <f>SUM(F22:F38)</f>
+        <f t="shared" si="4"/>
         <v>174</v>
       </c>
       <c r="G39" s="19">
-        <f>SUM(G22:G38)</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="H39" s="21">
-        <f>SUM(H22:H38)</f>
+        <f t="shared" si="4"/>
         <v>131.65714285714284</v>
       </c>
       <c r="I39" s="19">
-        <f>SUM(I22:I38)</f>
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
       <c r="J39" s="19">
-        <f>SUM(J22:J38)</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="K39" s="19">
-        <f>SUM(K22:K38)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L39" s="19">
-        <f>SUM(L22:L38)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M39" s="19">
-        <f>SUM(M22:M38)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N39" s="19">
-        <f>SUM(N22:N38)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="O39" s="19">
-        <f>SUM(O22:O38)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P39" s="19">
-        <f>SUM(P22:P38)</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="Q39" s="28" t="s">
@@ -16449,63 +16487,63 @@
         <v>29</v>
       </c>
       <c r="D42" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E42" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>22</v>
       </c>
       <c r="F42" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>23</v>
       </c>
       <c r="G42" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="H42" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>13.742857142857142</v>
       </c>
       <c r="I42" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>24</v>
       </c>
       <c r="J42" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>13</v>
       </c>
       <c r="K42" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L42" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M42" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N42" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O42" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P42" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))+IF($C42 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C42,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="Q42" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R42" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B42,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B42,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16518,63 +16556,63 @@
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E43" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F43" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>16</v>
       </c>
       <c r="G43" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H43" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>3.2</v>
       </c>
       <c r="I43" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="J43" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="K43" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L43" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M43" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N43" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O43" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P43" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))+IF($C43 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C43,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q43" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R43" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B43,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B43,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16587,63 +16625,63 @@
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E44" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>18</v>
       </c>
       <c r="F44" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>18</v>
       </c>
       <c r="G44" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H44" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10.171428571428571</v>
       </c>
       <c r="I44" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>17</v>
       </c>
       <c r="J44" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="K44" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L44" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M44" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N44" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="O44" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P44" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))+IF($C44 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C44,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q44" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R44" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B44,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B44,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16658,63 +16696,63 @@
         <v>170</v>
       </c>
       <c r="D45" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E45" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>33</v>
       </c>
       <c r="F45" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="G45" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H45" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5.9142857142857146</v>
       </c>
       <c r="I45" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="J45" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="K45" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L45" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M45" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N45" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O45" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P45" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))+IF($C45 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C45,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="Q45" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R45" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B45,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B45,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16727,63 +16765,63 @@
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E46" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>34</v>
       </c>
       <c r="F46" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>15</v>
       </c>
       <c r="G46" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H46" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7.8571428571428568</v>
       </c>
       <c r="I46" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>19</v>
       </c>
       <c r="J46" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K46" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>1</v>
       </c>
       <c r="L46" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M46" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N46" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O46" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P46" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))+IF($C46 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C46,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q46" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R46" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B46,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B46,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16796,63 +16834,63 @@
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E47" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>13</v>
       </c>
       <c r="F47" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>11</v>
       </c>
       <c r="G47" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H47" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8.0571428571428569</v>
       </c>
       <c r="I47" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="J47" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K47" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L47" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M47" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N47" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O47" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P47" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))+IF($C47 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C47,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q47" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R47" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B47,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B47,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16865,63 +16903,63 @@
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E48" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>51</v>
       </c>
       <c r="F48" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="G48" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H48" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8.2857142857142847</v>
       </c>
       <c r="I48" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="J48" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="K48" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L48" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M48" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N48" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O48" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P48" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))+IF($C48 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C48,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q48" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R48" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B48,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B48,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16934,63 +16972,63 @@
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E49" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>18</v>
       </c>
       <c r="F49" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>21</v>
       </c>
       <c r="G49" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H49" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10.77142857142857</v>
       </c>
       <c r="I49" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="J49" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="K49" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L49" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M49" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N49" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O49" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P49" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))+IF($C49 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C49,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="Q49" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R49" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B49,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B49,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -17003,63 +17041,63 @@
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Leather</v>
       </c>
       <c r="E50" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>51</v>
       </c>
       <c r="F50" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>14</v>
       </c>
       <c r="G50" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9</v>
       </c>
       <c r="H50" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>19.085714285714285</v>
       </c>
       <c r="I50" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>14</v>
       </c>
       <c r="J50" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K50" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L50" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M50" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N50" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O50" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P50" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))+IF($C50 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C50,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="Q50" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R50" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B50,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B50,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -17072,63 +17110,63 @@
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>Mail</v>
       </c>
       <c r="E51" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="F51" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>15</v>
       </c>
       <c r="G51" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5</v>
       </c>
       <c r="H51" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9.7142857142857135</v>
       </c>
       <c r="I51" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="J51" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K51" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L51" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M51" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N51" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O51" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P51" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))+IF($C51 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C51,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q51" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R51" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B51,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B51,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -17141,63 +17179,63 @@
       </c>
       <c r="C52" s="30"/>
       <c r="D52" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E52" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F52" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="G52" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>6</v>
       </c>
       <c r="H52" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="I52" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="J52" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K52" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L52" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M52" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N52" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O52" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P52" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))+IF($C52 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C52,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q52" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R52" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B52,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B52,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -17210,63 +17248,63 @@
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E53" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>46</v>
       </c>
       <c r="F53" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>12</v>
       </c>
       <c r="G53" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H53" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8.9714285714285715</v>
       </c>
       <c r="I53" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9</v>
       </c>
       <c r="J53" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K53" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L53" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M53" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N53" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O53" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P53" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))+IF($C53 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C53,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q53" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R53" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B53,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B53,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -17279,63 +17317,63 @@
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E54" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>23</v>
       </c>
       <c r="F54" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G54" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H54" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>3.2857142857142856</v>
       </c>
       <c r="I54" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="J54" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K54" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L54" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M54" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N54" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O54" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P54" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))+IF($C54 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C54,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>10</v>
       </c>
       <c r="Q54" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R54" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B54,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B54,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -17348,63 +17386,63 @@
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E55" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F55" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G55" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H55" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="I55" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="J55" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K55" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L55" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M55" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N55" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O55" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P55" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))+IF($C55 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C55,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q55" s="28" t="str">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>+204/408  damage/healing for 20 sec. Every cast reduces bonus by 17/34</v>
       </c>
       <c r="R55" s="28" t="str">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B55,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B55,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>2 min</v>
       </c>
     </row>
@@ -17417,63 +17455,63 @@
       </c>
       <c r="C56" s="52"/>
       <c r="D56" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>1H Mace</v>
       </c>
       <c r="E56" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>26</v>
       </c>
       <c r="F56" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>8</v>
       </c>
       <c r="G56" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>4</v>
       </c>
       <c r="H56" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9.3142857142857132</v>
       </c>
       <c r="I56" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>9</v>
       </c>
       <c r="J56" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K56" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L56" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M56" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N56" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O56" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P56" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))+IF($C56 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C56,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q56" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R56" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B56,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B56,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -17486,63 +17524,63 @@
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>OH</v>
       </c>
       <c r="E57" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>37</v>
       </c>
       <c r="F57" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G57" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H57" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>5.2857142857142856</v>
       </c>
       <c r="I57" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>7</v>
       </c>
       <c r="J57" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K57" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L57" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M57" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N57" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O57" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P57" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))+IF($C57 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C57,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q57" s="28">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
       <c r="R57" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B57,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B57,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -17555,63 +17593,63 @@
       </c>
       <c r="C58" s="31"/>
       <c r="D58" s="34" t="str">
-        <f>INDEX(Itemstatlist!C$10:C$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!C$10:C$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>-</v>
       </c>
       <c r="E58" s="59">
-        <f>INDEX(Itemstatlist!D$10:D$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!D$10:D$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!B$2:B$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="F58" s="59">
-        <f>INDEX(Itemstatlist!E$10:E$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!E$10:E$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!C$2:C$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="G58" s="59">
-        <f>INDEX(Itemstatlist!F$10:F$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!F$10:F$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!D$2:D$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="H58" s="60">
-        <f>INDEX(Itemstatlist!G$10:G$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!G$10:G$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!E$2:E$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="I58" s="59">
-        <f>INDEX(Itemstatlist!H$10:H$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!H$10:H$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!F$2:F$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="J58" s="59">
-        <f>INDEX(Itemstatlist!I$10:I$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!I$10:I$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!G$2:G$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="K58" s="59">
-        <f>INDEX(Itemstatlist!J$10:J$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!J$10:J$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!H$2:H$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="L58" s="59">
-        <f>INDEX(Itemstatlist!K$10:K$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!K$10:K$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!I$2:I$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="M58" s="59">
-        <f>INDEX(Itemstatlist!L$10:L$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!L$10:L$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!J$2:J$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="N58" s="59">
-        <f>INDEX(Itemstatlist!M$10:M$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!M$10:M$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!K$2:K$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="O58" s="59">
-        <f>INDEX(Itemstatlist!N$10:N$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!N$10:N$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!L$2:L$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="P58" s="59">
-        <f>INDEX(Itemstatlist!O$10:O$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
+        <f>INDEX(Itemstatlist!O$10:O$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))+IF($C58 &lt;&gt; "",INDEX(Enchants!M$2:M$1198, MATCH($C58,Enchants!$A$2:$A$1198, 0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q58" s="28" t="str">
-        <f>INDEX(Itemstatlist!P$10:P$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!P$10:P$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>LHW +53</v>
       </c>
       <c r="R58" s="28">
-        <f>INDEX(Itemstatlist!Q$10:Q$1210, MATCH($B58,Itemstatlist!$A$10:$A$1210, 0))</f>
+        <f>INDEX(Itemstatlist!Q$10:Q$1211, MATCH($B58,Itemstatlist!$A$10:$A$1211, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -17623,51 +17661,51 @@
       <c r="C59" s="48"/>
       <c r="D59" s="34"/>
       <c r="E59" s="19">
-        <f>SUM(E42:E58)</f>
+        <f t="shared" ref="E59:P59" si="5">SUM(E42:E58)</f>
         <v>384</v>
       </c>
       <c r="F59" s="19">
-        <f>SUM(F42:F58)</f>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="G59" s="19">
-        <f>SUM(G42:G58)</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="H59" s="21">
-        <f>SUM(H42:H58)</f>
+        <f t="shared" si="5"/>
         <v>131.65714285714284</v>
       </c>
       <c r="I59" s="19">
-        <f>SUM(I42:I58)</f>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="J59" s="19">
-        <f>SUM(J42:J58)</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="K59" s="19">
-        <f>SUM(K42:K58)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L59" s="19">
-        <f>SUM(L42:L58)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M59" s="19">
-        <f>SUM(M42:M58)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N59" s="19">
-        <f>SUM(N42:N58)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="O59" s="19">
-        <f>SUM(O42:O58)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P59" s="19">
-        <f>SUM(P42:P58)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="Q59" s="28" t="s">
@@ -18844,75 +18882,75 @@
         <v>537</v>
       </c>
       <c r="B4" s="77">
-        <f>(B6/$B$31)*(1-(($B$15-MIN(B2, $B$15))*$B$16))</f>
+        <f t="shared" ref="B4:S4" si="0">(B6/$B$31)*(1-(($B$15-MIN(B2, $B$15))*$B$16))</f>
         <v>0.12321428571428569</v>
       </c>
       <c r="C4" s="77">
-        <f>(C6/$B$31)*(1-(($B$15-MIN(C2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.27142857142857141</v>
       </c>
       <c r="D4" s="77">
-        <f>(D6/$B$31)*(1-(($B$15-MIN(D2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E4" s="77">
-        <f>(E6/$B$31)*(1-(($B$15-MIN(E2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.79285714285714282</v>
       </c>
       <c r="F4" s="77">
-        <f>(F6/$B$31)*(1-(($B$15-MIN(F2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="G4" s="77">
-        <f>(G6/$B$31)*(1-(($B$15-MIN(G2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="H4" s="77">
-        <f>(H6/$B$31)*(1-(($B$15-MIN(H2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="I4" s="77">
-        <f>(I6/$B$31)*(1-(($B$15-MIN(I2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="J4" s="77">
-        <f>(J6/$B$31)*(1-(($B$15-MIN(J2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="K4" s="77">
-        <f>(K6/$B$31)*(1-(($B$15-MIN(K2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="L4" s="77">
-        <f>(L6/$B$31)*(1-(($B$15-MIN(L2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="M4" s="77">
-        <f>(M6/$B$31)*(1-(($B$15-MIN(M2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="N4" s="77">
-        <f>(N6/$B$31)*(1-(($B$15-MIN(N2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="O4" s="77">
-        <f>(O6/$B$31)*(1-(($B$15-MIN(O2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="P4" s="77">
-        <f>(P6/$B$31)*(1-(($B$15-MIN(P2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="Q4" s="77">
-        <f>(Q6/$B$31)*(1-(($B$15-MIN(Q2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="R4" s="77">
-        <f>(R6/$B$31)*(1-(($B$15-MIN(R2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="S4" s="77">
-        <f>(S6/$B$31)*(1-(($B$15-MIN(S2, $B$15))*$B$16))</f>
+        <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -19466,7 +19504,7 @@
         <v>550</v>
       </c>
       <c r="B5" s="76" t="b">
-        <f ca="1">IF(COUNTIF(OFFSET(Equipset!B1, (B1-1)*36, 0):OFFSET(Equipset!B19,(B1-1)*36,0),Itemstatlist!A274),TRUE,FALSE)</f>
+        <f ca="1">IF(COUNTIF(OFFSET(Equipset!B1, (B1-1)*36, 0):OFFSET(Equipset!B19,(B1-1)*36,0),Itemstatlist!A275),TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="C5" s="76">

--- a/Vanilla_Shaman.xlsx
+++ b/Vanilla_Shaman.xlsx
@@ -10798,28 +10798,30 @@
       <c r="Q201" s="28"/>
     </row>
     <row r="202" spans="1:17" ht="15.6">
-      <c r="A202" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B202" s="63" t="s">
-        <v>481</v>
+      <c r="A202" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B202" s="102" t="s">
+        <v>567</v>
       </c>
       <c r="C202" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D202" s="19">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E202" s="19">
-        <v>12</v>
-      </c>
-      <c r="F202" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="F202" s="19">
+        <v>4</v>
+      </c>
       <c r="G202" s="21">
-        <f t="shared" ref="G202:G225" si="15">(E202/5)+(F202)+(D202/7)</f>
-        <v>8.9714285714285715</v>
+        <f>(E202/5)+(F202)+(D202/7)</f>
+        <v>9.1428571428571423</v>
       </c>
       <c r="H202" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I202" s="19"/>
       <c r="J202" s="19"/>
@@ -10832,28 +10834,28 @@
       <c r="Q202" s="28"/>
     </row>
     <row r="203" spans="1:17" ht="15.6">
-      <c r="A203" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B203" s="65" t="s">
-        <v>391</v>
+      <c r="A203" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B203" s="63" t="s">
+        <v>481</v>
       </c>
       <c r="C203" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D203" s="19"/>
+      <c r="D203" s="19">
+        <v>46</v>
+      </c>
       <c r="E203" s="19">
-        <v>10</v>
-      </c>
-      <c r="F203" s="19">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F203" s="19"/>
       <c r="G203" s="21">
-        <f>(E203/5)+(F203)+(D203/7)</f>
-        <v>8</v>
+        <f t="shared" ref="G203:G225" si="15">(E203/5)+(F203)+(D203/7)</f>
+        <v>8.9714285714285715</v>
       </c>
       <c r="H203" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I203" s="19"/>
       <c r="J203" s="19"/>
@@ -10867,10 +10869,10 @@
     </row>
     <row r="204" spans="1:17" ht="15.6">
       <c r="A204" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B204" s="64" t="s">
-        <v>430</v>
+        <v>185</v>
+      </c>
+      <c r="B204" s="65" t="s">
+        <v>391</v>
       </c>
       <c r="C204" s="39" t="s">
         <v>158</v>
@@ -10883,10 +10885,12 @@
         <v>6</v>
       </c>
       <c r="G204" s="21">
-        <f t="shared" si="15"/>
+        <f>(E204/5)+(F204)+(D204/7)</f>
         <v>8</v>
       </c>
-      <c r="H204" s="19"/>
+      <c r="H204" s="19">
+        <v>8</v>
+      </c>
       <c r="I204" s="19"/>
       <c r="J204" s="19"/>
       <c r="K204" s="19"/>
@@ -10899,24 +10903,24 @@
     </row>
     <row r="205" spans="1:17" ht="15.6">
       <c r="A205" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B205" s="65" t="s">
-        <v>484</v>
+        <v>38</v>
+      </c>
+      <c r="B205" s="64" t="s">
+        <v>430</v>
       </c>
       <c r="C205" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D205" s="19"/>
       <c r="E205" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F205" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G205" s="21">
-        <f>(E205/5)+(F205)+(D205/7)</f>
-        <v>6.6</v>
+        <f t="shared" si="15"/>
+        <v>8</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -10931,29 +10935,27 @@
     </row>
     <row r="206" spans="1:17" ht="15.6">
       <c r="A206" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B206" s="65" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="C206" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D206" s="19">
-        <v>29</v>
-      </c>
+      <c r="D206" s="19"/>
       <c r="E206" s="19">
-        <v>12</v>
-      </c>
-      <c r="F206" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="F206" s="19">
+        <v>4</v>
+      </c>
       <c r="G206" s="21">
         <f>(E206/5)+(F206)+(D206/7)</f>
-        <v>6.5428571428571427</v>
+        <v>6.6</v>
       </c>
       <c r="H206" s="19"/>
-      <c r="I206" s="19">
-        <v>8</v>
-      </c>
+      <c r="I206" s="19"/>
       <c r="J206" s="19"/>
       <c r="K206" s="19"/>
       <c r="L206" s="19"/>
@@ -10965,29 +10967,29 @@
     </row>
     <row r="207" spans="1:17" ht="15.6">
       <c r="A207" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B207" s="70" t="s">
-        <v>485</v>
+        <v>188</v>
+      </c>
+      <c r="B207" s="65" t="s">
+        <v>449</v>
       </c>
       <c r="C207" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D207" s="19">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E207" s="19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F207" s="19"/>
       <c r="G207" s="21">
-        <f t="shared" si="15"/>
-        <v>6.2857142857142856</v>
-      </c>
-      <c r="H207" s="19">
-        <v>4</v>
-      </c>
-      <c r="I207" s="19"/>
+        <f>(E207/5)+(F207)+(D207/7)</f>
+        <v>6.5428571428571427</v>
+      </c>
+      <c r="H207" s="19"/>
+      <c r="I207" s="19">
+        <v>8</v>
+      </c>
       <c r="J207" s="19"/>
       <c r="K207" s="19"/>
       <c r="L207" s="19"/>
@@ -10999,31 +11001,29 @@
     </row>
     <row r="208" spans="1:17" ht="15.6">
       <c r="A208" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B208" s="64" t="s">
-        <v>472</v>
+        <v>93</v>
+      </c>
+      <c r="B208" s="70" t="s">
+        <v>485</v>
       </c>
       <c r="C208" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D208" s="19">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E208" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F208" s="19"/>
       <c r="G208" s="21">
-        <f>(E208/5)+(F208)+(D208/7)</f>
-        <v>5.8285714285714292</v>
+        <f t="shared" si="15"/>
+        <v>6.2857142857142856</v>
       </c>
       <c r="H208" s="19">
-        <v>7</v>
-      </c>
-      <c r="I208" s="19">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I208" s="19"/>
       <c r="J208" s="19"/>
       <c r="K208" s="19"/>
       <c r="L208" s="19"/>
@@ -11034,105 +11034,111 @@
       <c r="Q208" s="28"/>
     </row>
     <row r="209" spans="1:17" ht="15.6">
-      <c r="A209" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B209" s="63" t="s">
-        <v>389</v>
+      <c r="A209" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B209" s="64" t="s">
+        <v>472</v>
       </c>
       <c r="C209" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D209" s="19"/>
+      <c r="D209" s="19">
+        <v>31</v>
+      </c>
       <c r="E209" s="19">
-        <v>11</v>
-      </c>
-      <c r="F209" s="19">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F209" s="19"/>
       <c r="G209" s="21">
         <f>(E209/5)+(F209)+(D209/7)</f>
-        <v>5.2</v>
+        <v>5.8285714285714292</v>
       </c>
       <c r="H209" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I209" s="19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J209" s="19"/>
-      <c r="K209" s="19">
-        <v>6</v>
-      </c>
-      <c r="L209" s="19">
-        <v>6</v>
-      </c>
-      <c r="M209" s="19">
-        <v>6</v>
-      </c>
-      <c r="N209" s="19">
-        <v>6</v>
-      </c>
-      <c r="O209" s="19">
-        <v>6</v>
-      </c>
+      <c r="K209" s="19"/>
+      <c r="L209" s="19"/>
+      <c r="M209" s="19"/>
+      <c r="N209" s="19"/>
+      <c r="O209" s="19"/>
       <c r="P209" s="28"/>
       <c r="Q209" s="28"/>
     </row>
     <row r="210" spans="1:17" ht="15.6">
-      <c r="A210" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B210" s="64" t="s">
-        <v>439</v>
+      <c r="A210" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B210" s="63" t="s">
+        <v>389</v>
       </c>
       <c r="C210" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D210" s="19"/>
-      <c r="E210" s="19"/>
+      <c r="E210" s="19">
+        <v>11</v>
+      </c>
       <c r="F210" s="19">
+        <v>3</v>
+      </c>
+      <c r="G210" s="21">
+        <f>(E210/5)+(F210)+(D210/7)</f>
+        <v>5.2</v>
+      </c>
+      <c r="H210" s="19">
+        <v>11</v>
+      </c>
+      <c r="I210" s="19">
+        <v>11</v>
+      </c>
+      <c r="J210" s="19"/>
+      <c r="K210" s="19">
+        <v>6</v>
+      </c>
+      <c r="L210" s="19">
+        <v>6</v>
+      </c>
+      <c r="M210" s="19">
+        <v>6</v>
+      </c>
+      <c r="N210" s="19">
+        <v>6</v>
+      </c>
+      <c r="O210" s="19">
+        <v>6</v>
+      </c>
+      <c r="P210" s="28"/>
+      <c r="Q210" s="28"/>
+    </row>
+    <row r="211" spans="1:17" ht="15.6">
+      <c r="A211" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="C211" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D211" s="19"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="19">
         <v>5</v>
       </c>
-      <c r="G210" s="21">
+      <c r="G211" s="21">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="19">
-        <v>1</v>
-      </c>
-      <c r="K210" s="19"/>
-      <c r="L210" s="19"/>
-      <c r="M210" s="19"/>
-      <c r="N210" s="19"/>
-      <c r="O210" s="19"/>
-      <c r="P210" s="28"/>
-      <c r="Q210" s="28"/>
-    </row>
-    <row r="211" spans="1:17" ht="15.6">
-      <c r="A211" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B211" s="63" t="s">
-        <v>393</v>
-      </c>
-      <c r="C211" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D211" s="19">
-        <v>33</v>
-      </c>
-      <c r="E211" s="19"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="21">
-        <f>(E211/5)+(F211)+(D211/7)</f>
-        <v>4.7142857142857144</v>
-      </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
+      <c r="J211" s="19">
+        <v>1</v>
+      </c>
       <c r="K211" s="19"/>
       <c r="L211" s="19"/>
       <c r="M211" s="19"/>
@@ -11143,29 +11149,25 @@
     </row>
     <row r="212" spans="1:17" ht="15.6">
       <c r="A212" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B212" s="63" t="s">
-        <v>470</v>
+        <v>393</v>
       </c>
       <c r="C212" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D212" s="19"/>
-      <c r="E212" s="19">
-        <v>23</v>
-      </c>
+      <c r="D212" s="19">
+        <v>33</v>
+      </c>
+      <c r="E212" s="19"/>
       <c r="F212" s="19"/>
       <c r="G212" s="21">
         <f>(E212/5)+(F212)+(D212/7)</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H212" s="19">
-        <v>13</v>
-      </c>
-      <c r="I212" s="19">
-        <v>10</v>
-      </c>
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
       <c r="J212" s="19"/>
       <c r="K212" s="19"/>
       <c r="L212" s="19"/>
@@ -11176,31 +11178,29 @@
       <c r="Q212" s="28"/>
     </row>
     <row r="213" spans="1:17" ht="15.6">
-      <c r="A213" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B213" s="64" t="s">
-        <v>409</v>
+      <c r="A213" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B213" s="63" t="s">
+        <v>470</v>
       </c>
       <c r="C213" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D213" s="19">
-        <v>15</v>
-      </c>
+      <c r="D213" s="19"/>
       <c r="E213" s="19">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F213" s="19"/>
       <c r="G213" s="21">
-        <f t="shared" si="15"/>
-        <v>4.5428571428571427</v>
+        <f>(E213/5)+(F213)+(D213/7)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H213" s="19">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I213" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J213" s="19"/>
       <c r="K213" s="19"/>
@@ -11213,31 +11213,31 @@
     </row>
     <row r="214" spans="1:17" ht="15.6">
       <c r="A214" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="B214" s="102" t="s">
-        <v>567</v>
+        <v>39</v>
+      </c>
+      <c r="B214" s="64" t="s">
+        <v>409</v>
       </c>
       <c r="C214" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D214" s="19">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E214" s="19">
-        <v>10</v>
-      </c>
-      <c r="F214" s="19">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F214" s="19"/>
       <c r="G214" s="21">
         <f t="shared" si="15"/>
-        <v>9.1428571428571423</v>
+        <v>4.5428571428571427</v>
       </c>
       <c r="H214" s="19">
-        <v>10</v>
-      </c>
-      <c r="I214" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="I214" s="19">
+        <v>8</v>
+      </c>
       <c r="J214" s="19"/>
       <c r="K214" s="19"/>
       <c r="L214" s="19"/>
